--- a/Testdata/TC_38.xlsx
+++ b/Testdata/TC_38.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Cx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12ZjaJKr3yLVkLO45sh0z2BZW7K3GTcrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20mEUTbrOperUqXP5qoLevZ5T45JEzA+DvYpdsyoGCdzQ84PzvUrMz6r248q7Dupeu4Qe4QjPCQdhA7QCtnvN/L3KjPPFrmleXV3Vrhq1MDo365Zlm08G/bE7I3Nc9QPGceCSSqrlvV2r4qC2Nx8Qjj3MsdLcq/TGvVqb+G4HaAMc4HMS1Vox8wPCWDfgPvcJE5oRwZy0O4PvqI059drjmo3MNXom2Yp96im5gqSiazlYlkz8OXHqlr1dtbarDXti7eza1m5jp7a9/ej9RDEVRH3M+JhEl74rCWOO5wupbm03bGvHtho7yNwoBHNlDnDQkHojcukz4rUJpayUR0x9gE2Xw67LOdNCZk5XT/RwEw4ivJhNfE5JOTNGg5YxD7Qt2SQO2g8j4oL/HmTSIbkaRtqtk0UfuJOZH/FlBy9Lz3XMSDRcCCeVU3VQJwx4k5KIHy/grIkHoQAMh0cxQeYdzEyp4zMXvv0gJp5zhinLKxWY6CSMLtgCu+QQ8tgUc1wFNMQeBBz3GffdbNE1BjqKwgXMCIu3Qurtw6xaeAMjnbkXgIvFsq0wvMis28RE8lTl+cKZzjFPxNfoaDwLr4YBXY7jKXMjf0q8TiuR3shDIiG1djtmPJyDFRkJKVqOsoR/kICrZNQhrj/H9IiCE5nTgFkKBNSMeXjm83ZI43nAEptWqOgEdjQh1+kO0zEawuEGwulh0AsSeeXmjayiwii8StdcZ0gn5MhN5qYnss5Zle4ATQfHOkOeiNjlvk+hP+TPIkctRsV4RgjfGBKKg0Qp3Bcdx2lSisxsiCAsIbTBDMeCplGVPxPL2pU/sGzKRt3Au1suYaLDeD6cQvpeyg05NvBWSAi2QFsUBxdAPfH57LCZmL6Bg9SG75Rf5yFI1AXFS0lOnZKnoV7g0tgjKv97wZmMSGGbOpU72WiN1IeUdhAOlpPlAsow83c5fOxVoDHvMh5B6684bhgHPFqKQoFMLfo2HRZPA7kApvfWOYvI92NAHMv9OHDboXf/1TzlnePA5/e3MIwjVf3uryK9JwphzDpElBRZ4++t75bZE4tKic8DMg8D372/t8HJwnrvARthSVbdW4Oo/Lq3PIU2rrqcyPV7q0UAF6GvlVqmyVjo+jJYdXp4OX3zjpTpkDMcU4BqHDrqeVpqV8moyS5WZfIkdBzRpOA5AggzQMKuN6+5gBUE2qu54VwQTACgJ2Nk5uUF4HFJNzjv4+A8BkiR1pVVelpuRTucRDhgYjspglipvJuFUFKnFLJx8iUJmStMNCHzRRhhOgBv+Ps61jQmArgxwHymR9C/KHETz5qZaqpVNCex9m1ishEp20WW69q4QpRCIjIV0M5kMhoSdXkAuUjbmPrTSJXSpF1v4sEpZQAwKbpicyXBYOJ4uGxBh/02WQoEng00XcapnTBU1Irq6YxHW9v1R1ajDuhFjJHc8YhganQhgzkxesElYXwOarvGiDDfgy8f013jPTIlPnQ+6SJ90KW183poPynu0pQm2FukFAUAU5z70DvWBVNOpuCcEhzRZU5QbbUfuiB3++N/3/zm+asXn91+9PTNFz/87z9+9eqfP7t59iP4uP3r324+/qXaphJGEzylRBo0aW1vW40tiLOUhIRzTQl/vdjlknZ6KlFvOkb68iYH7W6vfdBvySKSEhN11UdMcS9chnE2HKtNyIXkkZpJJCgRZ5IUJT0ucHN9yRH3tEtSlM7z71JUvnj98rPXL/98p7Z2WAaw7J2dR1W7/lb8BTdee00uxV/9QuEXwltV61G1Xs8Jr8igkar6qZ96niMu1Fa9YdlpAffSQN4ktMrSM03wubmip0hthYnSEMiPE6YM/AmkSMpWqZAb6BD94idv/vK0IKW9qynFWcA4iV3EYmYykFMfjibGeHg8aneNSXcs4iTj5eTU5F8jrFdP86kQVEEQY/otAzo6dDCjAreeihGeGQS7M2MJmZjLw0KwbaKqhR445aqVB1EYL9SJ5BQy6gbJtJps1NhQayRP+nOt6GSsDeLK1pu/f75JQW+kk6HY9I0jT0MFjiLl+DprP/3Xqy8/fPXixe3zn998+YPCDHqd9OoPcQ7ZlB+mYQ8lT/ebFQo6GUtnXljfzfUXTRS3p6PQDzhz7Mfy4qRHCFRtMZv8jXpzaHlyYukvoK9Q0HuYda+5TmznEJlFAti5wNBtw+x+mRJUDc/8+p/f/u7215/ffvL8zYd/uvnojzcff/L65e/fPPuDyrrbp89vf/pMV/nVRiBtEbdWhfwM+QbiGiIbDdG7ja8++IURhNwAyGHEsiJ99cGnucmEoRKcZDMDjksNKZqwJppXFnpGzpTUhoJeqqIAQFu0sEYqoZtYuPDdbJH3q2IqkXeS8Y3epBozYoSApr4JOykKZ8r31dMqqqUevWPV7brmKmvEFqaY5Vx/QMMpgIyEIR8ZVkQKWl+vkMnK9Q76w1azn4koI4aRRyIRhuoDJZBStJQeS0ZJqOUowAXg58ZUvAutia2z0plzZczU7ytnTU+Uv83vEwUJ1I6jSAGiQL/Xj+MFgOHkGe5uvnyazOHfQ4VV84g4G/c6RT6Mc1xohEW2IEi+LE2apcpUj4m3HAVnD4VrsiHwCs+Z4A79JK+Q1iXgysgUdacbRWG0sfhknERsAEgaKoqZeTyVkWeqULeXnVVCSApe+qGue3qHYYdQwsu9V5uZ9iC8fLAunH1Z1R4bUk87s9zVI3VLNkH+0V4Eyv/7Zq+CrRlFAKzEI1/pR/bktjqCS25Ja9RWpKK4AcLq+hV8348YfyIqgf5SlNOUcqoQ6hNx4VIfcnzqbNUVAQTM/Oxmwcwkdbn600lI+/7cL3kttJL8Lk4CvlwsFITrlYsU0VoOyTUAzNwMUBSn34O2oR5PysymAhZqaaovHiyZfz7jZQ17Z4qJR6ZW1Z2SenXLs7arO4Q0qrYN/2O3XresR+K5U08OlcMnVyUXMZMDy/6k6fwPXaulwwsdAAA=</t>
+          <t>BB8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqb2Isi4Yb0CRlEOUukCkaysvxXB3KE013GV3ZiXxLQVapEhTFEXhFOkVfUpRoK7RJkBq9/JfAktxn/oXeuayN5KKtaohwDvnNmfOnDnnmyF652rKrAuScBpHDxvumtOwSBTEIY1OHzZSMWm6Dxrv+Kh3FRB2hBM8JQKELdCK+M4Vpw8bZ0LMdmz78vJy7XJ9LU5Obc9xXPvp/mAYnJEpbtKICxwFpJFrhW/XavioE073icAhFlhrPmz0h/21DqFBF2j7OMKnJFnbTTmNCOe9SFBBCZeaCcGCdLr739EL8721B2suspfoheRuSlmo5SqSmm7kYFoyolPie47nNJ2tptcaue6O6+20Nte81vZ7mWIuiAaYiyFJLmigCEOBpzOl7mx5Ldd1vdYmslcKga0iAD46ZOExuaCchB3CGK8VEdtsYDsQsOp6wXSQXdI1hu7vwqMEz85GVDBSV30vTkgAgbrX3Afk8jAx8RvNBsAdndFEzLt4XtvWY06Sw5mMRj1VH3XjSLQZScTjGWwqCWHPgeGLJCXIvoVZKHUpD+CbRikJ/QlmvKxUYaIncXLOZzggB3BgbWnjMmIxDiGzBOWCBsWkSwx0lMQzsAiT78Ys3AOrRngFI7fcjyDEctrdOD4vvFvFRCoHVDbAnk6xyMSX6Gh4Fl8eRmw+TMc8SOiYhN3dTHolD8mTZ7Q7KRfxFLwoSEjTSpQ5/IOTtkhGXRLQKWZHDILI/XWwUiGgdiriCRWdmKXTiGc+LVDRE1jRiFzlK8zH6BA2N5JBj6N+lMnrMK9kVRWO48t8zmWGCkKJ3OZBviPLnEXpLtBMciwz1I7IVe5RBo2gvBclajUrhmeEiJUpoTlI1rw92Vr8NmPILoYI0hJSG9zwHegOTfU3cpwd9QfT5mzUi8Lb5TImOkinh2M4vhdqQb4LvAUSgiWwXYajc6A+oeLsoJ25voKD9IJvlV/mITioM4bnipwHpUxD/ShgaUj0+e9HE5WR0je9K7ey0RJpAEfaRziaj+YzqLec7gj4eNiADrzDRQI9vuEHcRqJZC4LBbKN6Nt0eDqO1ASY3VlnkpDvpwAt5ntpFHTi8O6zhTo6jyMq7u5hnCa6+t1dRUVPFsKUd4ksKarG31k/qLMmntQSn0ZkGkc0uHu0IcjS+/AeC+HZqbqzBtHn687yDNq47nLyrN9ZLQFcCH2t1jRtzuOAqmQ1xyMs6du3HJkumeCUASYT0FFP81K7SEZtfr4oUyahxwnLCp4vES8HyBuE07UAsIKEdWtBPJUEG5DmkyGyy/IS8ASkF50OcHSaAqTI68oiPS+3sh2OEhxxuZwcQSxU3tVCKKtTGtn45ZKE7AUmGpHpLE4w24do0D2TawYTAdzYx+LMjKB/MRJkkbUL1Vyr6k7m7dvEVCPSvstTbmrjAlEJyczUiLqQKWhI1uV9OIusgxkdJ7qUZu16FQ92qQCAWdGVi6sJBrPAw60KOuy3yVxC7WJg6CpP3Yyhs1ZWT3943NryNpx1D9CLHCO14mOCmdWDEyyI1Y8uCBdTUNuxjgmnIXxRzHasd8mYUOh8KkRmo2trl/XQXlbclStt8LdKqQoApjil0DuWBXNOoeCfEJyweUlQL3UQByB38+N/X//mxeuXn958+OzN5z/87z9+9fqfP7t+/iP4uPnr364/+qVephZGIzxmRDk02t3actZbkGc5Ccng2gr+hmkgFO3kRKHefIzMLU0NOr1+59FgVxWRnJip6z5iywvgPE6L4VAvQk2kttTOMkGL+KOsKJlxhVvqS768kF2QqnSZf5uijsVXrz796tWfb9U2ASsAlru9vdF0vbfiL89x3SW5HH8NKoVfCreazkbT80rCCzLoWFf9PE790F93nW3HW3fcvICHeSKvElpkGUsjfGov6GlSR2OiPAXK44ypEn8ERyRn66NQGpgU/fwnb/7yrCJlomsoVSvgnMIucjI7GyjTB8cja3j4+LjTs0a9ocyTgleS08a/RtjMnp+nSlJFUYrZtyzo6NDBrAbcehpWPLEIDs6sOZzE0jmsJNsqqp7oniYXvXyUxOlM70hJoaCukMyryUqNFbVG8VQ8l4pOwVohrn29/vtnqxTMQroFivWP93etaZTnpaKhCkeTSnxzaj/51+svPnj98uXNi59ff/GDigUzT371hzyH01Qe5mkPJc/0mwUKejJUwTx3vlvqL4Yob09HMY0E990H6uJkRghUXWlN/Y/6U2h5yrCKF9AXKOhdzHtXwhxs/wDZVQL4OcPQbePifpkTdA0v4vqf3/7u5tef3Xz84s0Hf7r+8I/XH3381avfv3n+B33qbp69uPnpc1PlFxuB8kXeWjXys9QbSGDJ02jJ3m19+f4vrCgWFkAOK1UV6cv3PykZk44qcFJYBhyXO1J1YUm0rCz1rJIruQ8VvVxFA4CObGHruYRpYvGMBsUk7zWlKXnuFOMb/VEz5cSKAU19E1ZSFS6U76pnVHRLPdp0PNczXO2NXMIY81LoH7F4DCAjY6hHhgWRitbXKxSyar5Hg8Pd9qAQ0U4cJiFJZBrqD9TnGajM0qtEAS6AvSBl8i1oSWyZhbKvUumyzZvKpB3Kkrf6TaIigTppkmgQFJnH+GE6AwCcPb3dzlfPkSXMe6DxaRkFF+N+t8qHcYkLza/KlgTFV+XIsHRp6nP5fqMh7IEMTTEEXuUJE8Jh3ts1uroALJnYstb0kiROVhacgpOJ7QN6hipiFxHPZWw5pUbaYbFXGSErcvmHvuKZFcZdwoio/Ridae/HF/fWhb2vq9rnhyw0wax33cjDUhgov8jLRKnrTDtJADbJJ7zaT+gDGp33663e397YCCZjZ9PdaG3hTTyebJItb+xsPdhyxxueBI7KqLx9ShPy5iLvbvUmAbBYVS8u18dw3a5pTQdYKcq7KERKHUhT2PMx2qMJF09liTJfmnKSU040dH4q/dMfanzitzxNAAG7PJld8TqrL0L/eBOzAZ3SmvdVJytCVSOQBrOZxpZ1NxR63gG5AuRbsgDVevw96Gf6VaeONX2qoMjn+pmtYTqubc7OlI+ALxPrftq9EHDZ/bXVTyGU/R8OKOR1XxP9iNPTM1F3X73t7XXygHhNbxIEzRYMmtCNx80QT7Zdx5mshxuefMY2xqE7UHJZcxLZUyiHe0V9PXvht2z/f9kROXAEHwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -812,4 +812,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>43</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7778A1AC-2E9C-4EF3-926E-18046D530C4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_38.xlsx
+++ b/Testdata/TC_38.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>BB8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqb2Isi4Yb0CRlEOUukCkaysvxXB3KE013GV3ZiXxLQVapEhTFEXhFOkVfUpRoK7RJkBq9/JfAktxn/oXeuayN5KKtaohwDvnNmfOnDnnmyF652rKrAuScBpHDxvumtOwSBTEIY1OHzZSMWm6Dxrv+Kh3FRB2hBM8JQKELdCK+M4Vpw8bZ0LMdmz78vJy7XJ9LU5Obc9xXPvp/mAYnJEpbtKICxwFpJFrhW/XavioE073icAhFlhrPmz0h/21DqFBF2j7OMKnJFnbTTmNCOe9SFBBCZeaCcGCdLr739EL8721B2suspfoheRuSlmo5SqSmm7kYFoyolPie47nNJ2tptcaue6O6+20Nte81vZ7mWIuiAaYiyFJLmigCEOBpzOl7mx5Ldd1vdYmslcKga0iAD46ZOExuaCchB3CGK8VEdtsYDsQsOp6wXSQXdI1hu7vwqMEz85GVDBSV30vTkgAgbrX3Afk8jAx8RvNBsAdndFEzLt4XtvWY06Sw5mMRj1VH3XjSLQZScTjGWwqCWHPgeGLJCXIvoVZKHUpD+CbRikJ/QlmvKxUYaIncXLOZzggB3BgbWnjMmIxDiGzBOWCBsWkSwx0lMQzsAiT78Ys3AOrRngFI7fcjyDEctrdOD4vvFvFRCoHVDbAnk6xyMSX6Gh4Fl8eRmw+TMc8SOiYhN3dTHolD8mTZ7Q7KRfxFLwoSEjTSpQ5/IOTtkhGXRLQKWZHDILI/XWwUiGgdiriCRWdmKXTiGc+LVDRE1jRiFzlK8zH6BA2N5JBj6N+lMnrMK9kVRWO48t8zmWGCkKJ3OZBviPLnEXpLtBMciwz1I7IVe5RBo2gvBclajUrhmeEiJUpoTlI1rw92Vr8NmPILoYI0hJSG9zwHegOTfU3cpwd9QfT5mzUi8Lb5TImOkinh2M4vhdqQb4LvAUSgiWwXYajc6A+oeLsoJ25voKD9IJvlV/mITioM4bnipwHpUxD/ShgaUj0+e9HE5WR0je9K7ey0RJpAEfaRziaj+YzqLec7gj4eNiADrzDRQI9vuEHcRqJZC4LBbKN6Nt0eDqO1ASY3VlnkpDvpwAt5ntpFHTi8O6zhTo6jyMq7u5hnCa6+t1dRUVPFsKUd4ksKarG31k/qLMmntQSn0ZkGkc0uHu0IcjS+/AeC+HZqbqzBtHn687yDNq47nLyrN9ZLQFcCH2t1jRtzuOAqmQ1xyMs6du3HJkumeCUASYT0FFP81K7SEZtfr4oUyahxwnLCp4vES8HyBuE07UAsIKEdWtBPJUEG5DmkyGyy/IS8ASkF50OcHSaAqTI68oiPS+3sh2OEhxxuZwcQSxU3tVCKKtTGtn45ZKE7AUmGpHpLE4w24do0D2TawYTAdzYx+LMjKB/MRJkkbUL1Vyr6k7m7dvEVCPSvstTbmrjAlEJyczUiLqQKWhI1uV9OIusgxkdJ7qUZu16FQ92qQCAWdGVi6sJBrPAw60KOuy3yVxC7WJg6CpP3Yyhs1ZWT3943NryNpx1D9CLHCO14mOCmdWDEyyI1Y8uCBdTUNuxjgmnIXxRzHasd8mYUOh8KkRmo2trl/XQXlbclStt8LdKqQoApjil0DuWBXNOoeCfEJyweUlQL3UQByB38+N/X//mxeuXn958+OzN5z/87z9+9fqfP7t+/iP4uPnr364/+qVephZGIzxmRDk02t3actZbkGc5Ccng2gr+hmkgFO3kRKHefIzMLU0NOr1+59FgVxWRnJip6z5iywvgPE6L4VAvQk2kttTOMkGL+KOsKJlxhVvqS768kF2QqnSZf5uijsVXrz796tWfb9U2ASsAlru9vdF0vbfiL89x3SW5HH8NKoVfCreazkbT80rCCzLoWFf9PE790F93nW3HW3fcvICHeSKvElpkGUsjfGov6GlSR2OiPAXK44ypEn8ERyRn66NQGpgU/fwnb/7yrCJlomsoVSvgnMIucjI7GyjTB8cja3j4+LjTs0a9ocyTgleS08a/RtjMnp+nSlJFUYrZtyzo6NDBrAbcehpWPLEIDs6sOZzE0jmsJNsqqp7oniYXvXyUxOlM70hJoaCukMyryUqNFbVG8VQ8l4pOwVohrn29/vtnqxTMQroFivWP93etaZTnpaKhCkeTSnxzaj/51+svPnj98uXNi59ff/GDigUzT371hzyH01Qe5mkPJc/0mwUKejJUwTx3vlvqL4Yob09HMY0E990H6uJkRghUXWlN/Y/6U2h5yrCKF9AXKOhdzHtXwhxs/wDZVQL4OcPQbePifpkTdA0v4vqf3/7u5tef3Xz84s0Hf7r+8I/XH3381avfv3n+B33qbp69uPnpc1PlFxuB8kXeWjXys9QbSGDJ02jJ3m19+f4vrCgWFkAOK1UV6cv3PykZk44qcFJYBhyXO1J1YUm0rCz1rJIruQ8VvVxFA4CObGHruYRpYvGMBsUk7zWlKXnuFOMb/VEz5cSKAU19E1ZSFS6U76pnVHRLPdp0PNczXO2NXMIY81LoH7F4DCAjY6hHhgWRitbXKxSyar5Hg8Pd9qAQ0U4cJiFJZBrqD9TnGajM0qtEAS6AvSBl8i1oSWyZhbKvUumyzZvKpB3Kkrf6TaIigTppkmgQFJnH+GE6AwCcPb3dzlfPkSXMe6DxaRkFF+N+t8qHcYkLza/KlgTFV+XIsHRp6nP5fqMh7IEMTTEEXuUJE8Jh3ts1uroALJnYstb0kiROVhacgpOJ7QN6hipiFxHPZWw5pUbaYbFXGSErcvmHvuKZFcZdwoio/Ridae/HF/fWhb2vq9rnhyw0wax33cjDUhgov8jLRKnrTDtJADbJJ7zaT+gDGp33663e397YCCZjZ9PdaG3hTTyebJItb+xsPdhyxxueBI7KqLx9ShPy5iLvbvUmAbBYVS8u18dw3a5pTQdYKcq7KERKHUhT2PMx2qMJF09liTJfmnKSU040dH4q/dMfanzitzxNAAG7PJld8TqrL0L/eBOzAZ3SmvdVJytCVSOQBrOZxpZ1NxR63gG5AuRbsgDVevw96Gf6VaeONX2qoMjn+pmtYTqubc7OlI+ALxPrftq9EHDZ/bXVTyGU/R8OKOR1XxP9iNPTM1F3X73t7XXygHhNbxIEzRYMmtCNx80QT7Zdx5mshxuefMY2xqE7UHJZcxLZUyiHe0V9PXvht2z/f9kROXAEHwAA</t>
+          <t>Cx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12ZjaJKr3yLVkLO45sh0z2BZW7K3GTcrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20mEUTbrOperUqXP5qoLevZ5T45JEzA+DvYpdsyoGCdzQ84PzvUrMz6r248q7Dupeu4Qe4QjPCQdhA7QCtnvN/L3KjPPFrmleXV3Vrhq1MDo365Zlm08G/bE7I3Nc9QPGceCSSqrlvV2r4qC2Nx8Qjj3MsdLcq/TGvVqb+G4HaAMc4HMS1Vox8wPCWDfgPvcJE5oRwZy0O4PvqI059drjmo3MNXom2Yp96im5gqSiazlYlkz8OXHqlr1dtbarDXti7eza1m5jp7a9/ej9RDEVRH3M+JhEl74rCWOO5wupbm03bGvHtho7yNwoBHNlDnDQkHojcukz4rUJpayUR0x9gE2Xw67LOdNCZk5XT/RwEw4ivJhNfE5JOTNGg5YxD7Qt2SQO2g8j4oL/HmTSIbkaRtqtk0UfuJOZH/FlBy9Lz3XMSDRcCCeVU3VQJwx4k5KIHy/grIkHoQAMh0cxQeYdzEyp4zMXvv0gJp5zhinLKxWY6CSMLtgCu+QQ8tgUc1wFNMQeBBz3GffdbNE1BjqKwgXMCIu3Qurtw6xaeAMjnbkXgIvFsq0wvMis28RE8lTl+cKZzjFPxNfoaDwLr4YBXY7jKXMjf0q8TiuR3shDIiG1djtmPJyDFRkJKVqOsoR/kICrZNQhrj/H9IiCE5nTgFkKBNSMeXjm83ZI43nAEptWqOgEdjQh1+kO0zEawuEGwulh0AsSeeXmjayiwii8StdcZ0gn5MhN5qYnss5Zle4ATQfHOkOeiNjlvk+hP+TPIkctRsV4RgjfGBKKg0Qp3Bcdx2lSisxsiCAsIbTBDMeCplGVPxPL2pU/sGzKRt3Au1suYaLDeD6cQvpeyg05NvBWSAi2QFsUBxdAPfH57LCZmL6Bg9SG75Rf5yFI1AXFS0lOnZKnoV7g0tgjKv97wZmMSGGbOpU72WiN1IeUdhAOlpPlAsow83c5fOxVoDHvMh5B6684bhgHPFqKQoFMLfo2HRZPA7kApvfWOYvI92NAHMv9OHDboXf/1TzlnePA5/e3MIwjVf3uryK9JwphzDpElBRZ4++t75bZE4tKic8DMg8D372/t8HJwnrvARthSVbdW4Oo/Lq3PIU2rrqcyPV7q0UAF6GvlVqmyVjo+jJYdXp4OX3zjpTpkDMcU4BqHDrqeVpqV8moyS5WZfIkdBzRpOA5AggzQMKuN6+5gBUE2qu54VwQTACgJ2Nk5uUF4HFJNzjv4+A8BkiR1pVVelpuRTucRDhgYjspglipvJuFUFKnFLJx8iUJmStMNCHzRRhhOgBv+Ps61jQmArgxwHymR9C/KHETz5qZaqpVNCex9m1ishEp20WW69q4QpRCIjIV0M5kMhoSdXkAuUjbmPrTSJXSpF1v4sEpZQAwKbpicyXBYOJ4uGxBh/02WQoEng00XcapnTBU1Irq6YxHW9v1R1ajDuhFjJHc8YhganQhgzkxesElYXwOarvGiDDfgy8f013jPTIlPnQ+6SJ90KW183poPynu0pQm2FukFAUAU5z70DvWBVNOpuCcEhzRZU5QbbUfuiB3++N/3/zm+asXn91+9PTNFz/87z9+9eqfP7t59iP4uP3r324+/qXaphJGEzylRBo0aW1vW40tiLOUhIRzTQl/vdjlknZ6KlFvOkb68iYH7W6vfdBvySKSEhN11UdMcS9chnE2HKtNyIXkkZpJJCgRZ5IUJT0ucHN9yRH3tEtSlM7z71JUvnj98rPXL/98p7Z2WAaw7J2dR1W7/lb8BTdee00uxV/9QuEXwltV61G1Xs8Jr8igkar6qZ96niMu1Fa9YdlpAffSQN4ktMrSM03wubmip0hthYnSEMiPE6YM/AmkSMpWqZAb6BD94idv/vK0IKW9qynFWcA4iV3EYmYykFMfjibGeHg8aneNSXcs4iTj5eTU5F8jrFdP86kQVEEQY/otAzo6dDCjAreeihGeGQS7M2MJmZjLw0KwbaKqhR445aqVB1EYL9SJ5BQy6gbJtJps1NhQayRP+nOt6GSsDeLK1pu/f75JQW+kk6HY9I0jT0MFjiLl+DprP/3Xqy8/fPXixe3zn998+YPCDHqd9OoPcQ7ZlB+mYQ8lT/ebFQo6GUtnXljfzfUXTRS3p6PQDzhz7Mfy4qRHCFRtMZv8jXpzaHlyYukvoK9Q0HuYda+5TmznEJlFAti5wNBtw+x+mRJUDc/8+p/f/u7215/ffvL8zYd/uvnojzcff/L65e/fPPuDyrrbp89vf/pMV/nVRiBtEbdWhfwM+QbiGiIbDdG7ja8++IURhNwAyGHEsiJ99cGnucmEoRKcZDMDjksNKZqwJppXFnpGzpTUhoJeqqIAQFu0sEYqoZtYuPDdbJH3q2IqkXeS8Y3epBozYoSApr4JOykKZ8r31dMqqqUevWPV7brmKmvEFqaY5Vx/QMMpgIyEIR8ZVkQKWl+vkMnK9Q76w1azn4koI4aRRyIRhuoDJZBStJQeS0ZJqOUowAXg58ZUvAutia2z0plzZczU7ytnTU+Uv83vEwUJ1I6jSAGiQL/Xj+MFgOHkGe5uvnyazOHfQ4VV84g4G/c6RT6Mc1xohEW2IEi+LE2apcpUj4m3HAVnD4VrsiHwCs+Z4A79JK+Q1iXgysgUdacbRWG0sfhknERsAEgaKoqZeTyVkWeqULeXnVVCSApe+qGue3qHYYdQwsu9V5uZ9iC8fLAunH1Z1R4bUk87s9zVI3VLNkH+0V4Eyv/7Zq+CrRlFAKzEI1/pR/bktjqCS25Ja9RWpKK4AcLq+hV8348YfyIqgf5SlNOUcqoQ6hNx4VIfcnzqbNUVAQTM/Oxmwcwkdbn600lI+/7cL3kttJL8Lk4CvlwsFITrlYsU0VoOyTUAzNwMUBSn34O2oR5PysymAhZqaaovHiyZfz7jZQ17Z4qJR6ZW1Z2SenXLs7arO4Q0qrYN/2O3XresR+K5U08OlcMnVyUXMZMDy/6k6fwPXaulwwsdAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -812,37 +812,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>43</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7778A1AC-2E9C-4EF3-926E-18046D530C4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>